--- a/ControlCambios/02_Evaluacion_Desarrollador/Aceptadas/EvalDes_0011.xlsx
+++ b/ControlCambios/02_Evaluacion_Desarrollador/Aceptadas/EvalDes_0011.xlsx
@@ -19,7 +19,7 @@
     <t xml:space="preserve">ID: </t>
   </si>
   <si>
-    <t>EvalDes_005</t>
+    <t>EvalDes_011</t>
   </si>
   <si>
     <t>Fecha:</t>
@@ -31,7 +31,7 @@
     <t>ID Documento base:</t>
   </si>
   <si>
-    <t>IdfScl_005</t>
+    <t>IdfScl_011</t>
   </si>
   <si>
     <t>Desarrollador asignado</t>
@@ -85,7 +85,7 @@
     <t>Identificación de riesgos:</t>
   </si>
   <si>
-    <t>Dependencia de servicios externos (si se modifica la API de Google se debe modificar la funcionalidad), compatibilidad con cuentas ya existentes (si hay cuentas registradas cuyo email es de gmail) y seguridad de datos durante el proceso de registro e inicio de sesión.</t>
+    <t>Los desarrolladores/usuarios/clientes podrían no  comprender el sistema adecuadamente</t>
   </si>
   <si>
     <t>EVALUACIÓN DEL DESARROLLADOR</t>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -190,6 +196,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFd0cece"/>
       </left>
@@ -283,13 +296,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -431,118 +437,118 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -984,7 +990,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="15"/>
@@ -1002,7 +1008,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="16" t="s">
@@ -1046,7 +1052,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="16" t="s">
@@ -1124,7 +1130,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="27" t="s">
@@ -1146,7 +1152,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="15"/>
@@ -1164,7 +1170,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="16" t="s">
@@ -1184,7 +1190,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="15"/>
@@ -1204,7 +1210,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="15"/>
@@ -1222,7 +1228,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="15"/>
@@ -1240,7 +1246,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="15"/>
@@ -1258,7 +1264,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="16" t="s">
@@ -1278,7 +1284,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="15"/>
@@ -1298,7 +1304,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="15"/>
@@ -1316,7 +1322,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="16" t="s">
@@ -1336,7 +1342,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="15"/>
@@ -1356,7 +1362,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="15"/>
@@ -1374,7 +1380,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="15"/>
@@ -1392,7 +1398,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="15"/>
@@ -1410,7 +1416,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="16" t="s">
@@ -1450,7 +1456,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="33"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="15"/>
@@ -1468,7 +1474,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="15"/>
@@ -1486,7 +1492,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="15"/>
@@ -1504,7 +1510,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="34"/>

--- a/ControlCambios/02_Evaluacion_Desarrollador/Aceptadas/EvalDes_0011.xlsx
+++ b/ControlCambios/02_Evaluacion_Desarrollador/Aceptadas/EvalDes_0011.xlsx
@@ -99,19 +99,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -443,43 +437,49 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -488,67 +488,61 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -886,7 +880,7 @@
     <col min="16" max="16" style="40" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -904,7 +898,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>

--- a/ControlCambios/02_Evaluacion_Desarrollador/Aceptadas/EvalDes_0011.xlsx
+++ b/ControlCambios/02_Evaluacion_Desarrollador/Aceptadas/EvalDes_0011.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Fecha:</t>
-  </si>
-  <si>
-    <t>14/3/2024</t>
   </si>
   <si>
     <t>ID Documento base:</t>
@@ -931,8 +928,8 @@
       <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>3</v>
+      <c r="I3" s="8">
+        <v>45365</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="1"/>
@@ -946,13 +943,13 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
@@ -968,7 +965,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="2"/>
@@ -1006,12 +1003,12 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -1028,12 +1025,12 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -1050,12 +1047,12 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -1090,7 +1087,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="2"/>
@@ -1128,12 +1125,12 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -1168,7 +1165,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1189,7 +1186,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="15"/>
       <c r="D16" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -1262,7 +1259,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1283,7 +1280,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="15"/>
       <c r="D21" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -1320,7 +1317,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1341,7 +1338,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="15"/>
       <c r="D24" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
@@ -1414,7 +1411,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -1435,7 +1432,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="15"/>
       <c r="D29" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
@@ -1526,7 +1523,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -1534,7 +1531,7 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="I34" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J34" s="39"/>
       <c r="K34" s="1"/>
